--- a/ResultatsBancTest/HBCompression.xlsx
+++ b/ResultatsBancTest/HBCompression.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis-maxencehotton/Desktop/ProjetCapteurGraphite2022-LM-TL/ResultatsBancTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis-maxencehotton/Desktop/2021-22_CapteurGraphite_HOTTON_LAMY/ResultatsBancTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8639C038-D3FB-C349-A1E8-32B1AD83A0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B46D3D9-E417-4946-900D-4540C7DD0207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{A110BED7-85FE-4F4A-B771-6FDD02800E81}"/>
   </bookViews>
@@ -221,6 +221,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1978,7 +1979,7 @@
   <dimension ref="A1:V1752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
